--- a/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
+++ b/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10976,7 +10977,6 @@
           <t>上投摩根双息平衡混合H</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>63.79</t>
@@ -11008,7 +11008,6 @@
           <t>工银核心价值混合H</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>83.62</t>
@@ -11040,7 +11039,6 @@
           <t>工银瑞信灵活配置混合B</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>73.66</t>
@@ -11056,6 +11054,7614 @@
       </c>
       <c r="H114" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.6362</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>261.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.2111</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003834</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏能源革新股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>224.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.7987</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>183.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.2790</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001790</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>109.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.2060</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011300</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.5871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>177.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.2294</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.0612</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501208</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>115.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.7259</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>109.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.6255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.8802</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009659</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.3545</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010420</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>民生加银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>76.68</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3509</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>58.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.0676</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009049</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达高端制造混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6206</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>166023</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>54.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.5968</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001373</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达新丝路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>47.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4278</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>68.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3815</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002910</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达供给改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>56.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.3109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.2904</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>51.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.1995</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001856</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.8207</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>57.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.5807</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004812</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>37.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5310</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000136</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>33.50</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.4506</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.2846</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011301</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达智造优势混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9855</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>17.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9226</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7923</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>18.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.7541</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004813</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中欧先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6996</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010116</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>14.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.6700</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.6584</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6403</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009660</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>民生加银新动能一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6241</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6076</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>72.78</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5957</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5592</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>163804</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中银收益混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>960012</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中银收益混合H</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5310</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.58</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4962</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4638</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.70</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4616</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4242</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.4013</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3833</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3348</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3346</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3316</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>002450</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3130</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001039</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实先进制造股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3124</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3115</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.3049</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.3019</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>481013</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011323</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519013</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>海富通风格优势混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.06</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2325</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2286</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2256</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001651</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2196</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010199</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2000</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005927</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1877</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1842</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1834</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001127</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>中银宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1815</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1794</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1750</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1511</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>78.05</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>70.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1451</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>74.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004608</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>19.37</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011260</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>009515</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1121</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004740</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中欧瑞丰灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>75.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002451</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>平安睿享文娱灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005928</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信新能源汽车主题股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1034</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>162202</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰达宏利周期混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010117</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>民生加银新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>66.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003955</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国泰民丰回报定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>66.38</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011261</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>金鹰新能源混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.67</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0728</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519668</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>银河竞争优势成长混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>40.67</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>004609</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长信乐信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.45</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>161722</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>招商丰泰灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>30.89</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000803</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银研究精选股票</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>81.41</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>519619</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>519621</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002197</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国泰鑫策略价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>22.24</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000367</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>26.98</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010987</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003754</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>98.50</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>73.28</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001850</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>24.15</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>004081</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007163</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合A</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>010832</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国泰合益混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>501002</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>长信价值优选混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005306</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>长信合利混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>002061</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>76.16</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>24.90</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006890</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>上投摩根领先优选混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>87.38</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005545</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中银改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>38.75</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>000120</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中银美丽中国混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>61.13</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>004252</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>国泰安益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>22.45</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>007164</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>浦银安盛环保新能源混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>000591</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中银健康生活混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>003755</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>国泰普益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>20.49</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>519620</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银河君荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>73.25</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010988</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>中融鑫锐研究精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>48.12</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>011475</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>工银消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010833</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国泰合益混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>84.33</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>73.60</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009709</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>民生加银策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>75.51</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>81.12</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>011149</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票A</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>004082</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国联安鑫乾混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>010200</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>长信添利安心收益混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>88.43</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>009516</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>中欧真益稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>009904</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>011150</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>创金合信ESG责任投资股票C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>011476</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>工银瑞信新蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>72.44</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>80.89</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>009905</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>民生加银中证200指数增强C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>004976</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合A</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>004977</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>华润元大景泰混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>21.85</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
+++ b/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18667,4 +18668,3134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.9217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.4026</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>153.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010213</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8989</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.8539</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>112.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.8539</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.1328</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3521</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.89</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0400</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006529</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>62.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8478</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009736</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0020</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010214</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧互联网先锋混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6600</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6081</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009029</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5386</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4833</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4563</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009737</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富稳健收益混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4257</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3409</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2440</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2342</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.25</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006530</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中欧匠心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>81.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000418</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城成长之星</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1645</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1510</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1371</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1364</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>009260</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001220</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>003502</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>003503</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>金鹰鑫瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>20.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009030</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信高质量成长混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005305</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长信合利混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>77.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>97.47</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>46.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000066</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安鸿鑫混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.08</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516870</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银华中证800汽车与零部件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009261</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银聚利6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.92</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>512350</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>兴业中证福建50ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>23.78</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>57.74</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>62.74</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
+++ b/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21798,4 +21799,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>57.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>199</v>
+      </c>
+      <c r="D3" t="n">
+        <v>141.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>113</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87.01000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>164</v>
+      </c>
+      <c r="D5" t="n">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
+++ b/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21807,7 +21808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21818,17 +21819,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21838,14 +21859,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>57.93</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>310.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.2713</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -21854,14 +21897,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>199</v>
-      </c>
-      <c r="D3" t="n">
-        <v>141.76</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>233.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4857</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -21870,14 +21935,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>113</v>
-      </c>
-      <c r="D4" t="n">
-        <v>87.01000000000001</v>
+          <t>166002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>157.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -21886,13 +21973,4935 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>115.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.2913</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>54.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.4893</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>68.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9662</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>56.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8570</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4315</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>42.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3026</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>37.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2108</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1398</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9561</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>040005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安宏利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8201</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005668</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7764</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7681</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5947</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5629</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.68</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5339</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005888</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4423</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4144</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009913</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中信保诚成长动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>57.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3813</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3248</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>550016</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信诚至远灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3061</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>004237</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2799</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2658</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2574</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1940</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>004772</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005889</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1875</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>26.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.93</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>23.36</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001650</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>65.86</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1236</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009835</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通新能源汽车主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1130</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010070</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>75.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>481008</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>81.34</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>400025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东方新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0908</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002233</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信丰收回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>56.92</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004405</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001722</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>工银瑞信银和利混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>29.50</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000195</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>160421</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安智增精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>67.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>673050</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>西部利得新盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.76</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发再融资主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>42.99</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011536</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000916</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源股息率100强等权重股票</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>001885</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>中欧新蓝筹混合 -E</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25.66</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010151</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>210002</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>金鹰红利价值混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>78.72</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010071</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>方正富邦ESG主题投资混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007254</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>广发均衡价值混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>004406</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国寿安保稳寿混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005519</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>银华混改红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>000196</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>工银瑞信成长收益混合B</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>64.32</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>011537</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>惠升惠益混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>81.77</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010152</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>西藏东财消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>80.18</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>59.12</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>95.53</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>71.69</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009200</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华安金享混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>69.45</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004773</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国寿安保稳泰一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>24.79</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>008307</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>88.49</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>130</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>81</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>199</v>
+      </c>
+      <c r="D4" t="n">
+        <v>141.76</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>113</v>
+      </c>
+      <c r="D5" t="n">
+        <v>87.01000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>164</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>98.59999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
+++ b/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -26800,7 +26801,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26811,17 +26812,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -26831,14 +26852,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>130</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65.12</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>237.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16.0435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -26847,14 +26890,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>81</v>
-      </c>
-      <c r="D3" t="n">
-        <v>57.93</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>209.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8913</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -26863,14 +26928,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>199</v>
-      </c>
-      <c r="D4" t="n">
-        <v>141.76</v>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>171.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -26879,14 +26966,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>113</v>
-      </c>
-      <c r="D5" t="n">
-        <v>87.01000000000001</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5496</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -26895,13 +27004,3395 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>011264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合（LOF）X</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2133</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>166001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2133</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001881</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧新趋势混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2133</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001117</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7989</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧精选灵活配置定期开放混合E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7989</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>45.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5549</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5450</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1267</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001718</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信物流产业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0559</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009707</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.0471</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000986</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>太平灵活配置混合型发起式</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9428</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.59</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8767</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009646</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19.33</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6437</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4622</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>202011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010132</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.16</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3709</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3672</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3298</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>47.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3004</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>21.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009708</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信新兴制造混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2031</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009794</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>太平智选一年定期开放股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.85</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.19</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009647</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008306</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦天璇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010133</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>南方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005059</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方安福混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>65.98</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001566</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001335</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>68.53</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>68.33</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010006</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>23.31</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>69.59</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001505</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方利众灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007569</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方安福混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001567</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方利达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20.63</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006539</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010007</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方誉鼎一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>64.82</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>960020</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方优选价值混合H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>501039</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>501040</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富睿丰混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>20.67</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.81</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>130</v>
+      </c>
+      <c r="D3" t="n">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>81</v>
+      </c>
+      <c r="D4" t="n">
+        <v>57.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>199</v>
+      </c>
+      <c r="D5" t="n">
+        <v>141.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>87.01000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>164</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>98.59999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
+++ b/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30275,7 +30276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30286,17 +30287,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30306,14 +30327,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55.83</v>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>300.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.8664</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -30322,14 +30365,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>130</v>
-      </c>
-      <c r="D3" t="n">
-        <v>65.12</v>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>181.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7148</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -30338,14 +30403,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>81</v>
-      </c>
-      <c r="D4" t="n">
-        <v>57.93</v>
+          <t>001714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2712</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -30354,14 +30441,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>199</v>
-      </c>
-      <c r="D5" t="n">
-        <v>141.76</v>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>184.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1126</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -30370,14 +30479,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>113</v>
-      </c>
-      <c r="D6" t="n">
-        <v>87.01000000000001</v>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0671</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -30386,13 +30517,3937 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>42.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8486</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8284</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5500</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4505</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.56</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>77.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2533</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7745</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方安泰混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6493</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>26.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5784</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5650</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4715</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4558</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3873</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3782</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>37.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3235</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2854</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1896</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>163503</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天治核心成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1602</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方宝恒混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001726</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.06</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1491</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002683</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>民生加银前沿科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007243</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1254</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010687</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>工银瑞信文体产业股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信新得益混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004986</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>690004</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>民生加银稳健成长混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008420</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发招泰混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>84.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银瑞信新增利混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>24.41</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011727</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>013674</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000935</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浙商汇金转型成长混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>建信高端装备股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>26.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013145</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>浙商汇金先进制造混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001190</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>25.71</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>008421</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发招泰混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>22.16</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>169201</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>浙商汇金鼎盈事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010663</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>46.44</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>财通安华混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>20.76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>013675</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城价值甄选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>39.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>007244</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>安信核心竞争力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>51.86</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001191</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>鹏华弘润灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010664</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长江均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>015194</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>72.38</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>015195</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>汇添富新兴消费股票D</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>011728</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信聚瑞混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>39.42</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>105</v>
+      </c>
+      <c r="D2" t="n">
+        <v>53.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>130</v>
+      </c>
+      <c r="D4" t="n">
+        <v>65.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>81</v>
+      </c>
+      <c r="D5" t="n">
+        <v>57.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>199</v>
+      </c>
+      <c r="D6" t="n">
+        <v>141.76</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>113</v>
+      </c>
+      <c r="D7" t="n">
+        <v>87.01000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>164</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>98.59999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
+++ b/数据整理/stocks/A股/上证主板/600660-福耀玻璃.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="D2" t="n">
-        <v>53.71</v>
+        <v>45.37</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="D3" t="n">
-        <v>55.83</v>
+        <v>53.71</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>65.12</v>
+        <v>55.83</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="D5" t="n">
-        <v>57.93</v>
+        <v>65.12</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>199</v>
+        <v>81</v>
       </c>
       <c r="D6" t="n">
-        <v>141.76</v>
+        <v>57.93</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>113</v>
+        <v>199</v>
       </c>
       <c r="D7" t="n">
-        <v>87.01000000000001</v>
+        <v>141.76</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>113</v>
+      </c>
+      <c r="D8" t="n">
+        <v>87.01000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>164</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>98.59999999999999</v>
       </c>
     </row>
@@ -600,6 +617,4880 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H128"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>110022</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达消费行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>268.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.6452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>144.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7255</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010894</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>58.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6183</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银核心价值混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>49.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>29.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4771</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000970</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方红睿元三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3852</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001156</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新能源汽车主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2795</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0813</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0492</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8512</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6721</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009704</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6413</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>南方安泰混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>72.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5883</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰中证800汽车与零部件ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>97.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5737</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011854</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>75.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3326</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>420003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012943</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3071</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012944</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发稳睿六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2833</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001857</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2613</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2525</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2380</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>164205</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2275</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004357</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方智慧精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2274</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006921</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方智诚混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2253</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>南方盛元红利混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2210</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1989</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007415</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方致远混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1860</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160127</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009705</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方景气驱动混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010742</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>12.41</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>70.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011034</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>南方宝恒混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011033</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方宝恒混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005268</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华优势企业股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.78</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005810</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010895</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华汇智优选混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1257</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>501090</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010881</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方宝顺混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011853</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>招商中证消费龙头指数增强A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014094</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007959</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>730002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0907</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011221</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>南方匠心优选股票C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007850</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0793</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011064</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>19.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银新得益混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004648</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方安睿混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010845</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>泰达宏利波控回报12个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>23.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008263</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方红品质优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.89</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009329</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华宝消费龙头（LOF）C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011384</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方远见回报股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011746</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>012220</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>南方安泰混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010764</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>九泰锐升混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>54.42</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001183</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159936</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发中证全指可选消费ETF指数</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006780</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发稳健策略混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001720</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银新增利混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>561500</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007416</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方致远混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>76.53</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516130</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华宝中证消费龙头ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010743</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方宁悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>002220</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方瑞利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011065</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>南方誉享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.77</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011812</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>财通安华混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>016562</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005811</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南方瑞祥一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>000844</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方绝对收益策略定期开放混合发起</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>53.35</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012213</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>011385</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>南方远见回报股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>560650</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>民生加银中证企业核心竞争力50ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012212</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007570</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>方正富邦红利精选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010444</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>530019</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>建信社会责任混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>73.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001781</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信现代服务业股票</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>81.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009351</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014095</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>南方誉盈一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001504</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方利淘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>515520</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成MSCI中国A股质优价值100ETF</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010445</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方誉尚一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>165508</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>信诚深度价值混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011747</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方誉浦一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>008444</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011811</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>财通安华混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010074</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008443</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>015463</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天弘永定价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>160144</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>南方新兴消费增长股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>85.17</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004892</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010882</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南方宝顺混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007851</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>方正富邦天睿灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004891</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>华润元大成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009352</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南方誉丰18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007960</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>方正富邦天恒混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>015475</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天弘文化新兴产业股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010075</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>南方誉隆一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>21.97</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>71.72</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>工银灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>74.34</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>481001</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>工银核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>-5.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-0.1933</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4637,7 +9528,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8111,7 +13002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13103,7 +17994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16233,7 +21124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23841,7 +28732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -28170,7 +33061,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
